--- a/results/statistics/min/3_3_0.xlsx
+++ b/results/statistics/min/3_3_0.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView windowWidth="17771" windowHeight="10308" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Графики" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Графики" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -23,187 +30,991 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Size</t>
+    <t>Size</t>
   </si>
   <si>
-    <t xml:space="preserve">Time (s)</t>
+    <t>Time (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nomolized size</t>
+    <t>Nomolized time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF878787"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF98B855"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00878787"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0098B855"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="1"/>
@@ -221,213 +1032,589 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:solidFill>
-                <a:srgbClr val="98b855"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
+          <c:spPr/>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="38235"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="38235"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="38235"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="46471"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="46471"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="46471"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="54706"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="54706"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="54706"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="62941"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="62941"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="62941"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="71176"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="71176"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="71176"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="79412"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="79412"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="79412"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="87647"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="87647"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="87647"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95882"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="95882"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95882"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="95882"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="95882"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="95882"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="87647"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="87647"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="87647"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="79412"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="79412"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c5000b"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="79412"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="71176"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="71176"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0084d1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="71176"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="62941"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="62941"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="62941"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="54706"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="54706"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="54706"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="46471"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="46471"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="46471"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="38235"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:tint val="38235"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="38235"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
-          </c:dPt>
-          <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
@@ -438,8 +1625,28 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -557,6 +1764,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="1"/>
+        </c:dLbls>
         <c:axId val="2107712"/>
         <c:axId val="62581151"/>
       </c:scatterChart>
@@ -564,75 +1779,90 @@
         <c:axId val="2107712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="180"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="878787"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
                   <a:t>Размер матрицы (N)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="878787"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -646,74 +1876,88 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="878787"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
                   <a:t>Время выполнения (сек)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="878787"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -723,30 +1967,1506 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{4b4c07fc-86f2-4b2c-9bbb-b0eb84494a8e}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"A vs C"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A vs C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.13703703703704e-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.22310249307479e-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.28675e-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.36507936507937e-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44576446280992e-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.50400756143667e-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.59119791666667e-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.652992e-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.70448224852071e-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.78920438957476e-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.85067602040816e-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.95054696789536e-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.98983333333333e-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.06891779396462e-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.24556640625e-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.20312213039486e-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="20"/>
+        <c:axId val="10"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="180"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Размерность</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Нормализованное время</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0168504901960784"/>
+              <c:y val="0.297777777777778"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{b63c236c-77e2-47ec-a0a3-e37e81199e73}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10199">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="113">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="lt1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="lt1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>5</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:shade val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:tint val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -762,12 +3482,12 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="7200360" cy="3600000"/>
+        <a:ext cx="7011670" cy="3462655"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -777,264 +3497,532 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8272780" cy="3857625"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="635" y="5394960"/>
+        <a:ext cx="8272780" cy="3857625"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
+    <col min="1" max="2" width="8.53703703703704" customWidth="1"/>
+    <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
+    <col min="4" max="1025" width="8.53703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>180</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.003684</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">B2*100/(A2*A2)</f>
-        <v>1.13703703703704E-005</v>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C17" si="0">B2*100/(A2*A2)</f>
+        <v>1.13703703703704e-5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>190</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.0044154</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">B3*100/(A3*A3)</f>
-        <v>1.22310249307479E-005</v>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.22310249307479e-5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>200</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.005147</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">B4*100/(A4*A4)</f>
-        <v>1.28675E-005</v>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.28675e-5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>210</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.00602</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">B5*100/(A5*A5)</f>
-        <v>1.36507936507936E-005</v>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.36507936507937e-5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>220</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.0069975</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">B6*100/(A6*A6)</f>
-        <v>1.44576446280992E-005</v>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.44576446280992e-5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>230</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.0079562</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">B7*100/(A7*A7)</f>
-        <v>1.50400756143667E-005</v>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.50400756143667e-5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>240</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>0.0091653</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">B8*100/(A8*A8)</f>
-        <v>1.59119791666667E-005</v>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.59119791666667e-5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>250</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.0103312</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">B9*100/(A9*A9)</f>
-        <v>1.652992E-005</v>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.652992e-5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>260</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>0.0115223</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">B10*100/(A10*A10)</f>
-        <v>1.70448224852071E-005</v>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.70448224852071e-5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>270</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>0.0130433</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">B11*100/(A11*A11)</f>
-        <v>1.78920438957476E-005</v>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.78920438957476e-5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>280</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>0.0145093</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">B12*100/(A12*A12)</f>
-        <v>1.85067602040816E-005</v>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.85067602040816e-5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>290</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0.0164041</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">B13*100/(A13*A13)</f>
-        <v>1.95054696789536E-005</v>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.95054696789536e-5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>300</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.0179085</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">B14*100/(A14*A14)</f>
-        <v>1.98983333333333E-005</v>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.98983333333333e-5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>310</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.0198823</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">B15*100/(A15*A15)</f>
-        <v>2.06891779396462E-005</v>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.06891779396462e-5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>320</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>0.0332346</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">B16*100/(A16*A16)</f>
-        <v>3.24556640625E-005</v>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.24556640625e-5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>330</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.023992</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">B17*100/(A17*A17)</f>
-        <v>2.20312213039486E-005</v>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.20312213039486e-5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+    <col min="1" max="1025" width="8.53703703703704" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>